--- a/OUTPUT-FILES/NORMS/TODC_final_gr1_12_10.28.21_fornorms/sub_sum-raw-ss-lookup-tabbed-grade.xlsx
+++ b/OUTPUT-FILES/NORMS/TODC_final_gr1_12_10.28.21_fornorms/sub_sum-raw-ss-lookup-tabbed-grade.xlsx
@@ -374,7 +374,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -394,63 +394,63 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>96</v>
@@ -458,97 +458,105 @@
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
         <v>20</v>
       </c>
-      <c r="B21">
+      <c r="B22">
         <v>130</v>
       </c>
     </row>
@@ -559,7 +567,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -579,162 +587,170 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
         <v>20</v>
       </c>
-      <c r="B21">
-        <v>114</v>
+      <c r="B22">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -744,7 +760,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -764,63 +780,63 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>43</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>67</v>
@@ -828,98 +844,106 @@
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
         <v>20</v>
       </c>
-      <c r="B21">
-        <v>113</v>
+      <c r="B22">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -929,7 +953,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -949,71 +973,71 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>43</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>67</v>
@@ -1021,90 +1045,98 @@
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
         <v>20</v>
       </c>
-      <c r="B21">
-        <v>112</v>
+      <c r="B22">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -1114,7 +1146,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1134,162 +1166,170 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>43</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
         <v>20</v>
       </c>
-      <c r="B21">
-        <v>111</v>
+      <c r="B22">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -1299,7 +1339,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1319,79 +1359,79 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>43</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>65</v>
@@ -1399,82 +1439,90 @@
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
         <v>20</v>
       </c>
-      <c r="B21">
-        <v>110</v>
+      <c r="B22">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -1484,7 +1532,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1504,87 +1552,87 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>40</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>43</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>46</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>66</v>
@@ -1592,74 +1640,82 @@
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
         <v>20</v>
       </c>
-      <c r="B21">
-        <v>109</v>
+      <c r="B22">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -1669,7 +1725,7 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1689,95 +1745,95 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>43</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>46</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>50</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>67</v>
@@ -1785,66 +1841,74 @@
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
         <v>20</v>
       </c>
-      <c r="B21">
-        <v>109</v>
+      <c r="B22">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -1854,7 +1918,7 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1874,162 +1938,170 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>40</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>40</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>43</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>47</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
         <v>20</v>
       </c>
-      <c r="B21">
-        <v>108</v>
+      <c r="B22">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -2039,7 +2111,7 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2059,111 +2131,111 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>40</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>43</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>47</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>51</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>70</v>
@@ -2171,50 +2243,58 @@
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
         <v>20</v>
       </c>
-      <c r="B21">
-        <v>109</v>
+      <c r="B22">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -2224,7 +2304,7 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2244,162 +2324,170 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>40</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>40</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>40</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>43</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>47</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>52</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
         <v>20</v>
       </c>
-      <c r="B21">
-        <v>110</v>
+      <c r="B22">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -2409,7 +2497,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2429,63 +2517,63 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>71</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>74</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>93</v>
@@ -2493,98 +2581,106 @@
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
         <v>20</v>
       </c>
-      <c r="B21">
-        <v>129</v>
+      <c r="B22">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -2594,7 +2690,7 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2614,127 +2710,127 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>40</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>40</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>43</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>48</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>53</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>58</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>75</v>
@@ -2742,34 +2838,42 @@
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
         <v>20</v>
       </c>
-      <c r="B21">
-        <v>112</v>
+      <c r="B22">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -2779,7 +2883,7 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2799,135 +2903,135 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>40</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>40</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>40</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>44</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>48</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>53</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
         <v>79</v>
@@ -2935,26 +3039,34 @@
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
         <v>20</v>
       </c>
-      <c r="B21">
-        <v>125</v>
+      <c r="B22">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -2964,7 +3076,7 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2984,162 +3096,170 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>40</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>40</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>40</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>44</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>49</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>55</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>60</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
         <v>20</v>
       </c>
-      <c r="B21">
-        <v>115</v>
+      <c r="B22">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -3149,7 +3269,7 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3169,162 +3289,170 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>40</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>40</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>40</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>40</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>45</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>50</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>56</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>63</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>71</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>106</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
         <v>20</v>
       </c>
-      <c r="B21">
-        <v>106</v>
+      <c r="B22">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -3334,7 +3462,7 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3354,162 +3482,170 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>40</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>40</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>40</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>40</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>40</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>45</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>51</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>58</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>66</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>77</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
         <v>20</v>
       </c>
-      <c r="B21">
-        <v>98</v>
+      <c r="B22">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -3519,7 +3655,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3539,55 +3675,55 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>68</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>87</v>
@@ -3595,106 +3731,114 @@
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
         <v>20</v>
       </c>
-      <c r="B21">
-        <v>127</v>
+      <c r="B22">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -3704,7 +3848,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3724,55 +3868,55 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>65</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>84</v>
@@ -3780,106 +3924,114 @@
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
         <v>20</v>
       </c>
-      <c r="B21">
-        <v>125</v>
+      <c r="B22">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -3889,7 +4041,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3909,55 +4061,55 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>81</v>
@@ -3965,106 +4117,114 @@
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
         <v>20</v>
       </c>
-      <c r="B21">
-        <v>123</v>
+      <c r="B22">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -4074,7 +4234,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4094,55 +4254,55 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>78</v>
@@ -4150,106 +4310,114 @@
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
         <v>20</v>
       </c>
-      <c r="B21">
-        <v>121</v>
+      <c r="B22">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -4259,7 +4427,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4279,55 +4447,55 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>75</v>
@@ -4335,106 +4503,114 @@
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
         <v>20</v>
       </c>
-      <c r="B21">
-        <v>119</v>
+      <c r="B22">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -4444,7 +4620,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4464,55 +4640,55 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>72</v>
@@ -4520,106 +4696,114 @@
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
         <v>20</v>
       </c>
-      <c r="B21">
-        <v>117</v>
+      <c r="B22">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -4629,7 +4813,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4649,55 +4833,55 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>69</v>
@@ -4705,106 +4889,114 @@
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
         <v>20</v>
       </c>
-      <c r="B21">
-        <v>116</v>
+      <c r="B22">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
